--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124908.1522349731</v>
+        <v>138634.5103723911</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="E2" t="n">
         <v>58202.77436820342</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943416</v>
+        <v>-30159.66516943424</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943421</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943416</v>
+        <v>-30159.66516943418</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.8377368049</v>
+        <v>-78508.83773680496</v>
       </c>
       <c r="F6" t="n">
         <v>54591.1622631951</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138634.5103723911</v>
+        <v>36911.23710688876</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471083.894762297</v>
+        <v>471083.8947622971</v>
       </c>
       <c r="E2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="F2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="G2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="H2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="I2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="J2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="K2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="L2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="M2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="N2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="O2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
       <c r="P2" t="n">
-        <v>58202.77436820342</v>
+        <v>58202.77436820343</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30159.66516943424</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="C6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.8009481153</v>
       </c>
       <c r="D6" t="n">
-        <v>-30159.66516943418</v>
+        <v>-30203.80094811524</v>
       </c>
       <c r="E6" t="n">
-        <v>-78508.83773680496</v>
+        <v>-96504.32657609884</v>
       </c>
       <c r="F6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="G6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="H6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="I6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="J6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="K6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="L6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="M6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="N6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="O6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
       <c r="P6" t="n">
-        <v>54591.1622631951</v>
+        <v>36595.67342390121</v>
       </c>
     </row>
   </sheetData>
